--- a/scene_cat_exp_2023.2.2_english/input_files/41_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/41_scenecat_block_order.xlsx
@@ -411,10 +411,10 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -443,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -471,10 +471,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
